--- a/Inputs/Medgulf_Medex/info.xlsx
+++ b/Inputs/Medgulf_Medex/info.xlsx
@@ -49,10 +49,10 @@
     <t xml:space="preserve">medgulf_mednet_medex</t>
   </si>
   <si>
-    <t xml:space="preserve">NE_Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-31</t>
+    <t xml:space="preserve">NE_Dubai/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-01</t>
   </si>
   <si>
     <t xml:space="preserve">USD</t>
@@ -191,10 +191,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.43"/>
